--- a/xlsx/nor_oda_regions_oneyear.xlsx
+++ b/xlsx/nor_oda_regions_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på regioner, 2023. Prosentfordeling.</t>
+          <t>Arkfane Figurdata viser data for Bistand fordelt på regioner, 2024. Prosentfordeling.</t>
         </is>
       </c>
     </row>
@@ -425,51 +425,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Afrika</t>
+          <t>Europa</t>
         </is>
       </c>
       <c r="B2">
-        <v>10.22269349184</v>
+        <v>10.06354779207</v>
       </c>
       <c r="C2">
-        <v>0.1744968602064786</v>
+        <v>0.1807200435379191</v>
       </c>
       <c r="D2">
-        <v>0.1744968602064786</v>
+        <v>0.1807200435379191</v>
       </c>
       <c r="E2">
-        <v>0.1744968602064786</v>
+        <v>0.1807200435379191</v>
       </c>
       <c r="F2">
-        <v>0.08724843010323931</v>
+        <v>0.09036002176895956</v>
       </c>
       <c r="G2">
-        <v>0.5481980540991583</v>
+        <v>0.5677487611351543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Europa</t>
+          <t>Afrika</t>
         </is>
       </c>
       <c r="B3">
-        <v>9.1357178215</v>
+        <v>8.36372557116</v>
       </c>
       <c r="C3">
-        <v>0.1559426658792629</v>
+        <v>0.1501948299535366</v>
       </c>
       <c r="D3">
-        <v>0.1559426658792629</v>
+        <v>0.1501948299535366</v>
       </c>
       <c r="E3">
-        <v>0.3304395260857416</v>
+        <v>0.3309148734914558</v>
       </c>
       <c r="F3">
-        <v>0.2524681931461101</v>
+        <v>0.2558174585146875</v>
       </c>
       <c r="G3">
-        <v>1.586304441705817</v>
+        <v>1.607348496659508</v>
       </c>
     </row>
     <row r="4">
@@ -479,22 +479,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>3.75802518476</v>
+        <v>3.21214041353</v>
       </c>
       <c r="C4">
-        <v>0.0641478291255566</v>
+        <v>0.05768325121290518</v>
       </c>
       <c r="D4">
-        <v>0.0641478291255566</v>
+        <v>0.05768325121290518</v>
       </c>
       <c r="E4">
-        <v>0.3945873552112982</v>
+        <v>0.3885981247043609</v>
       </c>
       <c r="F4">
-        <v>0.3625134406485199</v>
+        <v>0.3597564990979084</v>
       </c>
       <c r="G4">
-        <v>2.277739123937899</v>
+        <v>2.260416749294344</v>
       </c>
     </row>
     <row r="5">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>3.20564542496</v>
+        <v>2.95735389616</v>
       </c>
       <c r="C5">
-        <v>0.05471895073810924</v>
+        <v>0.05310782399147693</v>
       </c>
       <c r="D5">
-        <v>0.05471895073810924</v>
+        <v>0.05310782399147693</v>
       </c>
       <c r="E5">
-        <v>0.4493063059494074</v>
+        <v>0.4417059486958378</v>
       </c>
       <c r="F5">
-        <v>0.4219468305803528</v>
+        <v>0.4151520367000994</v>
       </c>
       <c r="G5">
-        <v>2.651170126313466</v>
+        <v>2.608477177239745</v>
       </c>
     </row>
     <row r="6">
@@ -529,22 +529,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>1.43220697559</v>
+        <v>1.90787559851</v>
       </c>
       <c r="C6">
-        <v>0.02444714014029281</v>
+        <v>0.03426141241157057</v>
       </c>
       <c r="D6">
-        <v>0.02444714014029281</v>
+        <v>0.03426141241157057</v>
       </c>
       <c r="E6">
-        <v>0.4737534460897002</v>
+        <v>0.4759673611074084</v>
       </c>
       <c r="F6">
-        <v>0.4615298760195538</v>
+        <v>0.4588366549016232</v>
       </c>
       <c r="G6">
-        <v>2.899877735830477</v>
+        <v>2.882955728473309</v>
       </c>
     </row>
     <row r="7">
@@ -554,22 +554,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.024369104</v>
+        <v>0.027442865</v>
       </c>
       <c r="C7">
-        <v>0.0004159698358793064</v>
+        <v>0.0004928158399081948</v>
       </c>
       <c r="D7">
-        <v>0.0004159698358793064</v>
+        <v>0.0004928158399081948</v>
       </c>
       <c r="E7">
-        <v>0.4741694159255795</v>
+        <v>0.4764601769473166</v>
       </c>
       <c r="F7">
-        <v>0.4739614310076399</v>
+        <v>0.4762137690273625</v>
       </c>
       <c r="G7">
-        <v>2.977987499477014</v>
+        <v>2.992139356629337</v>
       </c>
     </row>
     <row r="8">
@@ -579,22 +579,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>30.80516682803</v>
+        <v>29.15375587123</v>
       </c>
       <c r="C8">
-        <v>0.5258305840744204</v>
+        <v>0.5235398230526834</v>
       </c>
       <c r="D8">
-        <v>0.5258305840744204</v>
+        <v>0.5235398230526834</v>
       </c>
       <c r="E8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.7370847079627897</v>
+        <v>0.7382300884736583</v>
       </c>
       <c r="G8">
-        <v>4.631239807218557</v>
+        <v>4.638436445215576</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_regions_oneyear.xlsx
+++ b/xlsx/nor_oda_regions_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på regioner, 2024. Prosentfordeling.</t>
+          <t>Arkfane Figurdata viser data for Øremerket bistand fordelt på regioner, 2024. Prosentfordeling.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_regions_oneyear.xlsx
+++ b/xlsx/nor_oda_regions_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Øremerket bistand fordelt på regioner, 2024. Prosentfordeling.</t>
+          <t>Arkfane Figurdata inneholder data om norsk øremerket bistand fordelt på regioner. 2024. Prosentfordeling.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_regions_oneyear.xlsx
+++ b/xlsx/nor_oda_regions_oneyear.xlsx
@@ -432,19 +432,19 @@
         <v>10.06354779207</v>
       </c>
       <c r="C2">
-        <v>0.1807200435379191</v>
+        <v>0.2400961147913891</v>
       </c>
       <c r="D2">
-        <v>0.1807200435379191</v>
+        <v>0.2400961147913891</v>
       </c>
       <c r="E2">
-        <v>0.1807200435379191</v>
+        <v>0.2400961147913891</v>
       </c>
       <c r="F2">
-        <v>0.09036002176895956</v>
+        <v>0.1200480573956946</v>
       </c>
       <c r="G2">
-        <v>0.5677487611351543</v>
+        <v>0.7542841903840798</v>
       </c>
     </row>
     <row r="3">
@@ -457,19 +457,19 @@
         <v>8.36372557116</v>
       </c>
       <c r="C3">
-        <v>0.1501948299535366</v>
+        <v>0.1995417576691268</v>
       </c>
       <c r="D3">
-        <v>0.1501948299535366</v>
+        <v>0.1995417576691268</v>
       </c>
       <c r="E3">
-        <v>0.3309148734914558</v>
+        <v>0.4396378724605159</v>
       </c>
       <c r="F3">
-        <v>0.2558174585146875</v>
+        <v>0.3398669936259525</v>
       </c>
       <c r="G3">
-        <v>1.607348496659508</v>
+        <v>2.135447300745883</v>
       </c>
     </row>
     <row r="4">
@@ -482,19 +482,19 @@
         <v>3.21214041353</v>
       </c>
       <c r="C4">
-        <v>0.05768325121290518</v>
+        <v>0.07663524329468346</v>
       </c>
       <c r="D4">
-        <v>0.05768325121290518</v>
+        <v>0.07663524329468346</v>
       </c>
       <c r="E4">
-        <v>0.3885981247043609</v>
+        <v>0.5162731157551994</v>
       </c>
       <c r="F4">
-        <v>0.3597564990979084</v>
+        <v>0.4779554941078576</v>
       </c>
       <c r="G4">
-        <v>2.260416749294344</v>
+        <v>3.00308293806425</v>
       </c>
     </row>
     <row r="5">
@@ -507,19 +507,19 @@
         <v>2.95735389616</v>
       </c>
       <c r="C5">
-        <v>0.05310782399147693</v>
+        <v>0.07055654677674474</v>
       </c>
       <c r="D5">
-        <v>0.05310782399147693</v>
+        <v>0.07055654677674474</v>
       </c>
       <c r="E5">
-        <v>0.4417059486958378</v>
+        <v>0.5868296625319441</v>
       </c>
       <c r="F5">
-        <v>0.4151520367000994</v>
+        <v>0.5515513891435717</v>
       </c>
       <c r="G5">
-        <v>2.608477177239745</v>
+        <v>3.46549958442138</v>
       </c>
     </row>
     <row r="6">
@@ -532,19 +532,19 @@
         <v>1.90787559851</v>
       </c>
       <c r="C6">
-        <v>0.03426141241157057</v>
+        <v>0.04551809443072409</v>
       </c>
       <c r="D6">
-        <v>0.03426141241157057</v>
+        <v>0.04551809443072409</v>
       </c>
       <c r="E6">
-        <v>0.4759673611074084</v>
+        <v>0.6323477569626682</v>
       </c>
       <c r="F6">
-        <v>0.4588366549016232</v>
+        <v>0.6095887097473062</v>
       </c>
       <c r="G6">
-        <v>2.882955728473309</v>
+        <v>3.830158824506836</v>
       </c>
     </row>
     <row r="7">
@@ -557,19 +557,19 @@
         <v>0.027442865</v>
       </c>
       <c r="C7">
-        <v>0.0004928158399081948</v>
+        <v>0.0006547318501767954</v>
       </c>
       <c r="D7">
-        <v>0.0004928158399081948</v>
+        <v>0.0006547318501767954</v>
       </c>
       <c r="E7">
-        <v>0.4764601769473166</v>
+        <v>0.633002488812845</v>
       </c>
       <c r="F7">
-        <v>0.4762137690273625</v>
+        <v>0.6326751228877566</v>
       </c>
       <c r="G7">
-        <v>2.992139356629337</v>
+        <v>3.975215036346392</v>
       </c>
     </row>
     <row r="8">
@@ -579,22 +579,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>29.15375587123</v>
+        <v>15.38257708423</v>
       </c>
       <c r="C8">
-        <v>0.5235398230526834</v>
+        <v>0.3669975111871549</v>
       </c>
       <c r="D8">
-        <v>0.5235398230526834</v>
+        <v>0.3669975111871549</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F8">
-        <v>0.7382300884736583</v>
+        <v>0.8165012444064225</v>
       </c>
       <c r="G8">
-        <v>4.638436445215576</v>
+        <v>5.130228622148282</v>
       </c>
     </row>
   </sheetData>
